--- a/src/test/resources/ExcelData.xlsx
+++ b/src/test/resources/ExcelData.xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/ExcelData.xlsx
+++ b/src/test/resources/ExcelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21075" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21075" windowHeight="5445" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SO" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelData.xlsx
+++ b/src/test/resources/ExcelData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>rahulm</t>
   </si>
@@ -57,9 +57,6 @@
     <t>OrderToBePicked</t>
   </si>
   <si>
-    <t>158200000GH</t>
-  </si>
-  <si>
     <t>OrderToBePacked</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>janakpuri, Delhi - 110078</t>
   </si>
   <si>
-    <t>158200000XI</t>
-  </si>
-  <si>
     <t>OrderToBeShipped</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
   </si>
   <si>
     <t>Default Dock</t>
-  </si>
-  <si>
-    <t>ManifestCancel</t>
   </si>
   <si>
     <t>FileUpload</t>
@@ -314,7 +305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -323,9 +314,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,7 +631,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -643,7 +639,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -651,7 +647,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -667,37 +663,37 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -705,55 +701,55 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="8">
+        <v>63</v>
+      </c>
+      <c r="B14" s="7">
         <v>44323</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="8">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7">
         <v>44385</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -761,7 +757,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -792,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -800,7 +796,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -808,7 +804,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -816,31 +812,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>44377</v>
@@ -848,7 +844,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>43468</v>
@@ -856,7 +852,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>44377</v>
@@ -912,7 +908,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -923,164 +919,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3">
+        <v>35820000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <f>B3</f>
+        <v>35820000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <f>B3</f>
-        <v>158200000GH</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9">
+        <f>B5</f>
+        <v>35820000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <f>B6</f>
+        <v>35820000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelData.xlsx
+++ b/src/test/resources/ExcelData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>rahulm</t>
   </si>
@@ -235,6 +235,24 @@
   </si>
   <si>
     <t>CANCEL_PUTAWAY</t>
+  </si>
+  <si>
+    <t>BoxType</t>
+  </si>
+  <si>
+    <t>BoxLength</t>
+  </si>
+  <si>
+    <t>BoxWidth</t>
+  </si>
+  <si>
+    <t>BoxHeight</t>
+  </si>
+  <si>
+    <t>BoxWeight</t>
+  </si>
+  <si>
+    <t>158200000JZ</t>
   </si>
 </sst>
 </file>
@@ -905,10 +923,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -938,8 +956,8 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>35820000004</v>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -954,130 +972,165 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <f>B3</f>
-        <v>35820000004</v>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9">
-        <f>B5</f>
-        <v>35820000004</v>
+      <c r="B6" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4">
-        <f>B6</f>
-        <v>35820000004</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>75</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
